--- a/SchedulingData/dynamic11/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>266.52</v>
+        <v>226.84</v>
       </c>
       <c r="D2" t="n">
-        <v>319.22</v>
+        <v>261.9</v>
       </c>
       <c r="E2" t="n">
-        <v>12.188</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>232.78</v>
+        <v>200.96</v>
       </c>
       <c r="D3" t="n">
-        <v>297.14</v>
+        <v>286.46</v>
       </c>
       <c r="E3" t="n">
-        <v>9.456</v>
+        <v>13.404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>319.22</v>
+        <v>286.46</v>
       </c>
       <c r="D4" t="n">
-        <v>371.24</v>
+        <v>353.58</v>
       </c>
       <c r="E4" t="n">
-        <v>9.596</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>297.14</v>
+        <v>261.9</v>
       </c>
       <c r="D5" t="n">
-        <v>337.1</v>
+        <v>312.86</v>
       </c>
       <c r="E5" t="n">
-        <v>7.08</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>210.92</v>
+        <v>255.42</v>
       </c>
       <c r="D6" t="n">
-        <v>267.32</v>
+        <v>317.64</v>
       </c>
       <c r="E6" t="n">
-        <v>12.448</v>
+        <v>11.376</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>220.16</v>
+        <v>234.5</v>
       </c>
       <c r="D7" t="n">
-        <v>274.64</v>
+        <v>293.78</v>
       </c>
       <c r="E7" t="n">
-        <v>13.236</v>
+        <v>11.312</v>
       </c>
     </row>
     <row r="8">
@@ -580,136 +580,136 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>230.34</v>
+        <v>317.64</v>
       </c>
       <c r="D8" t="n">
-        <v>308.64</v>
+        <v>369.76</v>
       </c>
       <c r="E8" t="n">
-        <v>13.296</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>337.1</v>
+        <v>369.76</v>
       </c>
       <c r="D9" t="n">
-        <v>399.1</v>
+        <v>422.16</v>
       </c>
       <c r="E9" t="n">
-        <v>4.96</v>
+        <v>6.144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>274.64</v>
+        <v>226.2</v>
       </c>
       <c r="D10" t="n">
-        <v>329.64</v>
+        <v>266.16</v>
       </c>
       <c r="E10" t="n">
-        <v>10.376</v>
+        <v>15.904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>257.2</v>
+        <v>312.86</v>
       </c>
       <c r="D11" t="n">
-        <v>306.38</v>
+        <v>381.84</v>
       </c>
       <c r="E11" t="n">
-        <v>11.532</v>
+        <v>8.196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>267.32</v>
+        <v>266.16</v>
       </c>
       <c r="D12" t="n">
-        <v>331.16</v>
+        <v>338.34</v>
       </c>
       <c r="E12" t="n">
-        <v>8.704000000000001</v>
+        <v>11.796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>371.24</v>
+        <v>273.4</v>
       </c>
       <c r="D13" t="n">
-        <v>413.94</v>
+        <v>336.46</v>
       </c>
       <c r="E13" t="n">
-        <v>7.436</v>
+        <v>8.624000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>308.64</v>
+        <v>338.34</v>
       </c>
       <c r="D14" t="n">
-        <v>340.74</v>
+        <v>381</v>
       </c>
       <c r="E14" t="n">
-        <v>11.216</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,127 +717,127 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>329.64</v>
+        <v>336.46</v>
       </c>
       <c r="D15" t="n">
-        <v>383.84</v>
+        <v>390.76</v>
       </c>
       <c r="E15" t="n">
-        <v>7.076</v>
+        <v>5.324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>340.74</v>
+        <v>293.78</v>
       </c>
       <c r="D16" t="n">
-        <v>399.92</v>
+        <v>352.42</v>
       </c>
       <c r="E16" t="n">
-        <v>8.407999999999999</v>
+        <v>9.068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>383.84</v>
+        <v>390.76</v>
       </c>
       <c r="D17" t="n">
-        <v>437.92</v>
+        <v>428.08</v>
       </c>
       <c r="E17" t="n">
-        <v>4.268</v>
+        <v>2.732</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>413.94</v>
+        <v>428.08</v>
       </c>
       <c r="D18" t="n">
-        <v>485.54</v>
+        <v>463.68</v>
       </c>
       <c r="E18" t="n">
-        <v>4.356</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>306.38</v>
+        <v>463.68</v>
       </c>
       <c r="D19" t="n">
-        <v>367.1</v>
+        <v>559.66</v>
       </c>
       <c r="E19" t="n">
-        <v>8.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>399.1</v>
+        <v>352.42</v>
       </c>
       <c r="D20" t="n">
-        <v>465.8</v>
+        <v>398.54</v>
       </c>
       <c r="E20" t="n">
-        <v>1.88</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>465.8</v>
+        <v>422.16</v>
       </c>
       <c r="D21" t="n">
-        <v>558.4400000000001</v>
+        <v>480.06</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>3.984</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>331.16</v>
+        <v>559.66</v>
       </c>
       <c r="D22" t="n">
-        <v>383.64</v>
+        <v>599.0599999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>4.596</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>383.64</v>
+        <v>381.84</v>
       </c>
       <c r="D23" t="n">
-        <v>430.96</v>
+        <v>455.52</v>
       </c>
       <c r="E23" t="n">
-        <v>2.004</v>
+        <v>5.908</v>
       </c>
     </row>
     <row r="24">
@@ -884,55 +884,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>437.92</v>
+        <v>398.54</v>
       </c>
       <c r="D24" t="n">
-        <v>491.62</v>
+        <v>455.64</v>
       </c>
       <c r="E24" t="n">
-        <v>1.028</v>
+        <v>2.516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>491.62</v>
+        <v>455.52</v>
       </c>
       <c r="D25" t="n">
-        <v>571.46</v>
+        <v>514.38</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>3.152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>367.1</v>
+        <v>455.64</v>
       </c>
       <c r="D26" t="n">
-        <v>419.56</v>
+        <v>507.34</v>
       </c>
       <c r="E26" t="n">
-        <v>4.964</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="27">
@@ -941,93 +941,93 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>571.46</v>
+        <v>507.34</v>
       </c>
       <c r="D27" t="n">
-        <v>625.72</v>
+        <v>578.37</v>
       </c>
       <c r="E27" t="n">
-        <v>27.244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>558.4400000000001</v>
+        <v>599.0599999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>620.48</v>
+        <v>658.14</v>
       </c>
       <c r="E28" t="n">
-        <v>27.456</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>620.48</v>
+        <v>480.06</v>
       </c>
       <c r="D29" t="n">
-        <v>650.64</v>
+        <v>513.0599999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>25.08</v>
+        <v>1.824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>625.72</v>
+        <v>513.0599999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>673.22</v>
+        <v>610.71</v>
       </c>
       <c r="E30" t="n">
-        <v>24.604</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>399.92</v>
+        <v>578.37</v>
       </c>
       <c r="D31" t="n">
-        <v>454.72</v>
+        <v>623.83</v>
       </c>
       <c r="E31" t="n">
-        <v>5.548</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="32">
@@ -1036,79 +1036,79 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>485.54</v>
+        <v>381</v>
       </c>
       <c r="D32" t="n">
-        <v>539.3200000000001</v>
+        <v>433.1</v>
       </c>
       <c r="E32" t="n">
-        <v>2.068</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>430.96</v>
+        <v>623.83</v>
       </c>
       <c r="D33" t="n">
-        <v>508.75</v>
+        <v>667.79</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>24.868</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>508.75</v>
+        <v>353.58</v>
       </c>
       <c r="D34" t="n">
-        <v>574.55</v>
+        <v>408.48</v>
       </c>
       <c r="E34" t="n">
-        <v>27.58</v>
+        <v>7.952</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>454.72</v>
+        <v>514.38</v>
       </c>
       <c r="D35" t="n">
-        <v>516.54</v>
+        <v>573.88</v>
       </c>
       <c r="E35" t="n">
-        <v>2.956</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>539.3200000000001</v>
+        <v>573.88</v>
       </c>
       <c r="D36" t="n">
-        <v>641.58</v>
+        <v>650.1</v>
       </c>
       <c r="E36" t="n">
         <v>30</v>
@@ -1127,40 +1127,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>641.58</v>
+        <v>658.14</v>
       </c>
       <c r="D37" t="n">
-        <v>718.6799999999999</v>
+        <v>711.64</v>
       </c>
       <c r="E37" t="n">
-        <v>27.92</v>
+        <v>20.712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>419.56</v>
+        <v>433.1</v>
       </c>
       <c r="D38" t="n">
-        <v>478.26</v>
+        <v>490.3</v>
       </c>
       <c r="E38" t="n">
-        <v>1.724</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="39">
@@ -1169,74 +1169,93 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>478.26</v>
+        <v>408.48</v>
       </c>
       <c r="D39" t="n">
-        <v>581.11</v>
+        <v>465.12</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>5.408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>718.6799999999999</v>
+        <v>465.12</v>
       </c>
       <c r="D40" t="n">
-        <v>762.3200000000001</v>
+        <v>517.96</v>
       </c>
       <c r="E40" t="n">
-        <v>25.676</v>
+        <v>2.724</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>673.22</v>
+        <v>610.71</v>
       </c>
       <c r="D41" t="n">
-        <v>712.08</v>
+        <v>687.8099999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>21.848</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>581.11</v>
+        <v>490.3</v>
       </c>
       <c r="D42" t="n">
-        <v>626.5700000000001</v>
+        <v>559.1</v>
       </c>
       <c r="E42" t="n">
-        <v>27.624</v>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>559.1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>640.5599999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
